--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RC2\modules\app-designer\app\config\tables\entitlements\forms\entitlements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\tables\entitlements\forms\entitlements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1185" windowWidth="25035" windowHeight="15495" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,12 @@
     <t>authorization_id</t>
   </si>
   <si>
+    <t>item_pack_id</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -159,6 +165,12 @@
     <t>date_created</t>
   </si>
   <si>
+    <t>assigned_item_pack_code</t>
+  </si>
+  <si>
+    <t>item_pack_description</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -166,18 +178,6 @@
   </si>
   <si>
     <t>distribution_name</t>
-  </si>
-  <si>
-    <t>item_description</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>assigned_item_code</t>
   </si>
 </sst>
 </file>
@@ -730,68 +730,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13">
         <v>20160805</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -804,17 +804,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -830,47 +830,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -878,52 +878,52 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -939,14 +939,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="63.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -954,15 +954,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -979,9 +979,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -992,25 +992,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="141" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="138.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1026,74 +1026,74 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
